--- a/data/trans_camb/P1423_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.078363946601983</v>
+        <v>1.318797789430803</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5491039298260084</v>
+        <v>0.882492487538479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.823339360694128</v>
+        <v>1.814116742452006</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.333776899152027</v>
+        <v>6.492711430664759</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.402564539367763</v>
+        <v>6.583588843767298</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.902891230287588</v>
+        <v>5.712308455546464</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1779275555794956</v>
+        <v>0.2055723406784476</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04073056933233594</v>
+        <v>0.07486255663978869</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1819958091150797</v>
+        <v>0.1972179154607454</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.844187047154222</v>
+        <v>1.969931183069557</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6366007574650936</v>
+        <v>0.6669027993523942</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7872509489401835</v>
+        <v>0.7779051544588863</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>2.609810401487375</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.166591069323738</v>
+        <v>1.166591069323735</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.913711392530416</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.537199664561068</v>
+        <v>1.609517150918343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2606908878913687</v>
+        <v>-0.3344992036198542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.079615473489709</v>
+        <v>0.9868768392693007</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.706494880089454</v>
+        <v>3.772582906923351</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.636131862336996</v>
+        <v>2.463274209690646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.803063824699609</v>
+        <v>2.763971254499471</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>1.547995335656898</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2035322161129688</v>
+        <v>0.2035322161129683</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.5221600320486225</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.7428986048274729</v>
+        <v>0.7203869655954327</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04540807674568403</v>
+        <v>-0.04664989546630262</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2701112952093185</v>
+        <v>0.2391778829725463</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.976279776856287</v>
+        <v>2.862775891973331</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5303529595617106</v>
+        <v>0.5051632774918827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8651794044229101</v>
+        <v>0.8531132453558602</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>3.326184950444615</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.088590108518974</v>
+        <v>2.088590108518975</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.708377095128697</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.733942772242563</v>
+        <v>1.762934868433099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.08537288385744644</v>
+        <v>0.02892900986657903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.411150763517607</v>
+        <v>1.316542673154282</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.127966657324288</v>
+        <v>5.438937381114947</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.899860286138209</v>
+        <v>3.831078131298994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.234940506852197</v>
+        <v>4.021954293571175</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>5.594432527393004</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9835262368814677</v>
+        <v>0.983526236881468</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.990523827100212</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.9484877775967049</v>
+        <v>1.040982853743285</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09154269698063892</v>
+        <v>-0.06679045834879316</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.588816343151065</v>
+        <v>0.5509079393935005</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>26.30480893654816</v>
+        <v>26.37926005678275</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.635362034007067</v>
+        <v>3.513030020630027</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.931982426479037</v>
+        <v>4.957869746037594</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.73118479980128</v>
+        <v>2.731184799801281</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1.374155212812316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.04833081061673</v>
+        <v>2.048330810616733</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.833334184379709</v>
+        <v>1.8914812701569</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1424480150830654</v>
+        <v>0.2975519496957201</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.372690324733341</v>
+        <v>1.29768535652183</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.606982233680176</v>
+        <v>3.602801414661294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.507622229750914</v>
+        <v>2.543550379751294</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.817713318000004</v>
+        <v>2.777943749579837</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.2007879845921641</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4532037464681135</v>
+        <v>0.4532037464681141</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6971341117125447</v>
+        <v>0.7716653465336542</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01876414323651319</v>
+        <v>0.03814993623972582</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2804664226189415</v>
+        <v>0.2614786026127318</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.005120421116303</v>
+        <v>2.062741706529883</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4083349374042239</v>
+        <v>0.4164741581363545</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6763561456864482</v>
+        <v>0.658895884265523</v>
       </c>
     </row>
     <row r="28">
